--- a/xlsx/菲爾多西_intext.xlsx
+++ b/xlsx/菲爾多西_intext.xlsx
@@ -29,7 +29,7 @@
     <t>波斯文</t>
   </si>
   <si>
-    <t>政策_政策_政治學_菲爾多西</t>
+    <t>体育运动_体育运动_伊朗_菲爾多西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%8C%96</t>
@@ -80,6 +80,24 @@
     <t>穆斯林</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>诗人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>文学家</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
@@ -156,24 +174,6 @@
   </si>
   <si>
     <t>西班牙国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>作家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>诗人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>文学家</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -837,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -866,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -924,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -1156,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -1214,7 +1214,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1243,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
